--- a/csv/policies/turn off/Off_OBPS/formula_Off_OBPS_AT.xlsx
+++ b/csv/policies/turn off/Off_OBPS/formula_Off_OBPS_AT.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\turn off\Off_OBPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\policies\turn off\Off_OBPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B64E08-1CF5-4A9F-A57A-05C73726E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46EFD6DD-C9B7-4DB4-806E-A3F8BF4C88B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{131D1556-D405-4D69-BF76-B7AE9A42C181}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E19A569D-B831-4583-8DB7-D9B3254E013D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="44">
+  <si>
+    <t>CIMS.CAN.AT.Mining.Steam</t>
+  </si>
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Combustion</t>
   </si>
   <si>
-    <t>Govt of Canada</t>
-  </si>
-  <si>
     <t>$/tCO2e</t>
   </si>
   <si>
@@ -156,6 +153,21 @@
   </si>
   <si>
     <t>Transportation Equipment</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.AT.Electricity</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>N2O</t>
   </si>
 </sst>
 </file>
@@ -208,57 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Control"/>
-      <sheetName val="Macro"/>
-      <sheetName val="Prices"/>
-      <sheetName val="Carbon_tax"/>
-      <sheetName val="Demand"/>
-      <sheetName val="Conversions"/>
-      <sheetName val="Coefficients"/>
-      <sheetName val="Macro inputs"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0</v>
-          </cell>
-          <cell r="M26">
-            <v>0</v>
-          </cell>
-          <cell r="N26">
-            <v>0</v>
-          </cell>
-          <cell r="O26">
-            <v>30</v>
-          </cell>
-          <cell r="P26">
-            <v>68.341643330825832</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,56 +538,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1989202-2D34-489B-A192-8F477686B6E6}">
-  <dimension ref="A1:X11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D13649-2B41-43A8-A123-7560A0B45785}">
+  <dimension ref="A1:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X11"/>
+      <selection sqref="A1:X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2">
         <v>2000</v>
@@ -662,60 +626,33 @@
         <v>2050</v>
       </c>
       <c r="X2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>21</v>
-      </c>
-      <c r="M3">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R3">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S3" t="s">
         <v>22</v>
@@ -738,52 +675,25 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
         <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>21</v>
-      </c>
-      <c r="M4">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S4" t="s">
         <v>22</v>
@@ -806,52 +716,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>21</v>
-      </c>
-      <c r="M5">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S5" t="s">
         <v>22</v>
@@ -874,52 +757,25 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
         <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>21</v>
-      </c>
-      <c r="M6">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
@@ -942,52 +798,25 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7" t="s">
         <v>21</v>
-      </c>
-      <c r="M7">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S7" t="s">
         <v>22</v>
@@ -1010,52 +839,25 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
         <v>20</v>
       </c>
       <c r="L8" t="s">
         <v>21</v>
-      </c>
-      <c r="M8">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S8" t="s">
         <v>22</v>
@@ -1078,52 +880,25 @@
         <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
         <v>20</v>
       </c>
       <c r="L9" t="s">
         <v>21</v>
-      </c>
-      <c r="M9">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
@@ -1146,52 +921,25 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
         <v>20</v>
       </c>
       <c r="L10" t="s">
         <v>21</v>
-      </c>
-      <c r="M10">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R10">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
@@ -1214,66 +962,1310 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11">
-        <f>[1]Prices!K$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <f>[1]Prices!L$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>[1]Prices!M$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f>[1]Prices!N$26*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <f>[1]Prices!O$26*0.1</f>
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <f>[1]Prices!P$26*0.1</f>
-        <v>6.8341643330825832</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" t="s">
+        <v>22</v>
+      </c>
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" t="s">
+        <v>22</v>
+      </c>
+      <c r="V14" t="s">
+        <v>22</v>
+      </c>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" t="s">
+        <v>22</v>
+      </c>
+      <c r="V16" t="s">
+        <v>22</v>
+      </c>
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" t="s">
+        <v>22</v>
+      </c>
+      <c r="V18" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" t="s">
+        <v>22</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" t="s">
+        <v>22</v>
+      </c>
+      <c r="V20" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V21" t="s">
+        <v>22</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" t="s">
+        <v>22</v>
+      </c>
+      <c r="V22" t="s">
+        <v>22</v>
+      </c>
+      <c r="W22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" t="s">
+        <v>22</v>
+      </c>
+      <c r="V23" t="s">
+        <v>22</v>
+      </c>
+      <c r="W23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V24" t="s">
+        <v>22</v>
+      </c>
+      <c r="W24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V25" t="s">
+        <v>22</v>
+      </c>
+      <c r="W25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" t="s">
+        <v>21</v>
+      </c>
+      <c r="S26" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" t="s">
+        <v>21</v>
+      </c>
+      <c r="S27" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="S31" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" t="s">
+        <v>22</v>
+      </c>
+      <c r="W31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" t="s">
+        <v>22</v>
+      </c>
+      <c r="V32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="S33" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" t="s">
+        <v>22</v>
+      </c>
+      <c r="V33" t="s">
+        <v>22</v>
+      </c>
+      <c r="W33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="S34" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" t="s">
+        <v>22</v>
+      </c>
+      <c r="V34" t="s">
+        <v>22</v>
+      </c>
+      <c r="W34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" t="s">
+        <v>22</v>
+      </c>
+      <c r="V35" t="s">
+        <v>22</v>
+      </c>
+      <c r="W35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="S36" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" t="s">
+        <v>22</v>
+      </c>
+      <c r="V36" t="s">
+        <v>22</v>
+      </c>
+      <c r="W36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="S37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>22</v>
+      </c>
+      <c r="U37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V37" t="s">
+        <v>22</v>
+      </c>
+      <c r="W37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="S38" t="s">
+        <v>22</v>
+      </c>
+      <c r="T38" t="s">
+        <v>22</v>
+      </c>
+      <c r="U38" t="s">
+        <v>22</v>
+      </c>
+      <c r="V38" t="s">
+        <v>22</v>
+      </c>
+      <c r="W38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="S39" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" t="s">
+        <v>22</v>
+      </c>
+      <c r="V39" t="s">
+        <v>22</v>
+      </c>
+      <c r="W39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="S40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T40" t="s">
+        <v>22</v>
+      </c>
+      <c r="U40" t="s">
+        <v>22</v>
+      </c>
+      <c r="V40" t="s">
+        <v>22</v>
+      </c>
+      <c r="W40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="S41" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" t="s">
+        <v>22</v>
+      </c>
+      <c r="U41" t="s">
+        <v>22</v>
+      </c>
+      <c r="V41" t="s">
+        <v>22</v>
+      </c>
+      <c r="W41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="S42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" t="s">
+        <v>22</v>
+      </c>
+      <c r="U42" t="s">
+        <v>22</v>
+      </c>
+      <c r="V42" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" t="s">
         <v>22</v>
       </c>
     </row>
